--- a/data/trans_bre/P5_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,88</t>
+          <t>-6,46; 2,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,4</t>
+          <t>-4,28; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 3,09</t>
+          <t>-6,65; 3,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 9,61</t>
+          <t>-4,48; 9,29</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,42</t>
+          <t>-6,55; 3,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 11,06</t>
+          <t>-5,75; 16,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,62</t>
+          <t>-6,69; 3,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 13,4</t>
+          <t>-6,03; 22,11</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,34</t>
+          <t>-5,63; 1,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 2,17</t>
+          <t>-7,21; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,54</t>
+          <t>-5,8; 2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,34</t>
+          <t>-7,48; 2,58</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,46%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,17</t>
+          <t>-4,5; 1,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,11</t>
+          <t>-4,2; 4,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,22</t>
+          <t>-4,57; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,45</t>
+          <t>-4,32; 4,79</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 7,83</t>
+          <t>0,1; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,33</t>
+          <t>-2,24; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,59</t>
+          <t>0,11; 8,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,94</t>
+          <t>-2,36; 7,29</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,99</t>
+          <t>-3,11; 2,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,33</t>
+          <t>-3,82; 6,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,14</t>
+          <t>-3,18; 2,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 7,02</t>
+          <t>-3,97; 6,74</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,01</t>
+          <t>-2,09; 0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,49</t>
+          <t>-1,53; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,07</t>
+          <t>-2,17; 0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,71</t>
+          <t>-1,62; 3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.497118561644839</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.329390157047861</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.01556912644077326</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0144899751361158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 2,94</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 7,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 3,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 9,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.464626980830035</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.811738125980414</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.06654299369932601</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.05074070527299254</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.94181028911309</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.703861307387116</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.0305782400065374</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.08782472128931815</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,2%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 3,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 16,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,69; 3,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 22,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.103844162466106</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.547139060470981</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02195481157324181</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.01675694971025719</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,77%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.550351883688778</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.838708436799012</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06685402631498716</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.08161767192154645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 1,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 2,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 2,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 2,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.147149733456655</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.76577020666506</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03335591208548871</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1313749633971452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,46%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.675818764099124</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.732152141523658</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.01770846670558088</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.02885013040758458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 1,31</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 4,38</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 1,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 4,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.628565415180638</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.53235246356494</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.05801196007884783</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.07822458036581562</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.938619985236526</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.863645550660759</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.02072802450997325</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.01995896539900726</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 8,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 6,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 8,89</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 7,29</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.476963817149879</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4103612341310625</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01518288196685374</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.004321117665898991</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.499636620403453</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.211336008575098</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04566974586626325</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04360026112243009</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 2,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 6,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 2,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.313191119611179</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.353331729930834</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01358908859818605</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04763854593185135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.85122131647283</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.368429949409789</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.04131509856958936</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.02546862351313802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 0,92</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 3,26</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 0,97</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 3,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.09869111228419133</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.991450608166444</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.001076278412075416</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.0202139365270765</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.0023344849178</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.959282221841705</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.08893485491241203</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.07850670961700401</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.3865293261886116</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.123738320966738</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.003971496469471249</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.01202933290813314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-3.114999585648571</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.240667916016132</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.03175680605784799</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.04408818156289175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2.540337946572247</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.443832715114654</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02674645464756403</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.07204880336176814</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.5444820485796975</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.05596151572239139</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.005685830637296698</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.0005986171749694527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.089600712270061</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.060034756106785</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.02167994917553879</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.02182373362838173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.9177095633656214</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.424441967413916</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.009681745364014357</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.02633182997144665</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
